--- a/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449731603511566</v>
+        <v>1.59688576826224</v>
       </c>
       <c r="C2">
-        <v>0.8865005594464606</v>
+        <v>0.2728124079214069</v>
       </c>
       <c r="D2">
-        <v>0.02334347668686121</v>
+        <v>0.05389289655974494</v>
       </c>
       <c r="E2">
-        <v>0.1074008578879386</v>
+        <v>0.1186410797556547</v>
       </c>
       <c r="F2">
-        <v>2.916899437587489</v>
+        <v>2.426141673261853</v>
       </c>
       <c r="G2">
-        <v>0.0008068098873781622</v>
+        <v>0.0008377755545039547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2336801996304132</v>
+        <v>0.2178974216144098</v>
       </c>
       <c r="K2">
-        <v>0.9809374303034559</v>
+        <v>1.77571144996017</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.277432813627286</v>
+        <v>1.9629046969293</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.994916411956467</v>
+        <v>1.398695430533195</v>
       </c>
       <c r="C3">
-        <v>0.765876419559163</v>
+        <v>0.2373694221092109</v>
       </c>
       <c r="D3">
-        <v>0.02047814989565211</v>
+        <v>0.04665685811022513</v>
       </c>
       <c r="E3">
-        <v>0.09529139260951069</v>
+        <v>0.1049717591917521</v>
       </c>
       <c r="F3">
-        <v>2.666193136161965</v>
+        <v>2.278874104983956</v>
       </c>
       <c r="G3">
-        <v>0.0008165026193174274</v>
+        <v>0.0008450519389659037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2079545674794332</v>
+        <v>0.1954686364452343</v>
       </c>
       <c r="K3">
-        <v>0.8504343388629394</v>
+        <v>1.552874559541721</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.306518398318516</v>
+        <v>1.972097311548097</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.721522037663817</v>
+        <v>1.279149586252004</v>
       </c>
       <c r="C4">
-        <v>0.6933727160018179</v>
+        <v>0.2160003954125642</v>
       </c>
       <c r="D4">
-        <v>0.0187333135125769</v>
+        <v>0.04225202854873089</v>
       </c>
       <c r="E4">
-        <v>0.08804680344335836</v>
+        <v>0.09674815834556938</v>
       </c>
       <c r="F4">
-        <v>2.518894971867297</v>
+        <v>2.192312310903404</v>
       </c>
       <c r="G4">
-        <v>0.0008225973628477941</v>
+        <v>0.0008496478889117909</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1926533687070489</v>
+        <v>0.1820525333710989</v>
       </c>
       <c r="K4">
-        <v>0.7719877305702738</v>
+        <v>1.418473829029864</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.326520893099712</v>
+        <v>1.979808469990331</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.611392848839216</v>
+        <v>1.230913587107153</v>
       </c>
       <c r="C5">
-        <v>0.6641647652392351</v>
+        <v>0.2073793993880741</v>
       </c>
       <c r="D5">
-        <v>0.01802547521760545</v>
+        <v>0.04046531198676462</v>
       </c>
       <c r="E5">
-        <v>0.08513717013927291</v>
+        <v>0.09343533095008993</v>
       </c>
       <c r="F5">
-        <v>2.460369734542539</v>
+        <v>2.157935491674152</v>
       </c>
       <c r="G5">
-        <v>0.0008251193243767047</v>
+        <v>0.0008515541594475379</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1865283328134097</v>
+        <v>0.1766662319597145</v>
       </c>
       <c r="K5">
-        <v>0.7403869348291607</v>
+        <v>1.364245293875769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.335176968009321</v>
+        <v>1.983444588512512</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.593178052708083</v>
+        <v>1.222931372440058</v>
       </c>
       <c r="C6">
-        <v>0.6593337237405592</v>
+        <v>0.2059528196182896</v>
       </c>
       <c r="D6">
-        <v>0.01790812015289234</v>
+        <v>0.04016909337303787</v>
       </c>
       <c r="E6">
-        <v>0.08465645338178973</v>
+        <v>0.09288743684710354</v>
       </c>
       <c r="F6">
-        <v>2.450737617839664</v>
+        <v>2.152279436908131</v>
       </c>
       <c r="G6">
-        <v>0.000825540469888209</v>
+        <v>0.00085187274247178</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1855175540737903</v>
+        <v>0.1757764892969078</v>
       </c>
       <c r="K6">
-        <v>0.735160255640551</v>
+        <v>1.355271454485518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.336643859071557</v>
+        <v>1.984077462524724</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720031851656927</v>
+        <v>1.278497190682572</v>
       </c>
       <c r="C7">
-        <v>0.692977507329033</v>
+        <v>0.2158837920990493</v>
       </c>
       <c r="D7">
-        <v>0.01872375496918366</v>
+        <v>0.04222790035972679</v>
       </c>
       <c r="E7">
-        <v>0.08800739735329444</v>
+        <v>0.0967033304790732</v>
       </c>
       <c r="F7">
-        <v>2.518099818492431</v>
+        <v>2.191845150593792</v>
       </c>
       <c r="G7">
-        <v>0.0008226312169596807</v>
+        <v>0.0008496734609397321</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1925703351779262</v>
+        <v>0.1819795751254389</v>
       </c>
       <c r="K7">
-        <v>0.7715601365003835</v>
+        <v>1.417740380627663</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.32663563045476</v>
+        <v>1.979855541645222</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.291571931080853</v>
+        <v>1.52806773955615</v>
       </c>
       <c r="C8">
-        <v>0.8445511216600323</v>
+        <v>0.2605026809292781</v>
       </c>
       <c r="D8">
-        <v>0.02235222076465604</v>
+        <v>0.05138918251633129</v>
       </c>
       <c r="E8">
-        <v>0.1031825551359802</v>
+        <v>0.1138900787635251</v>
       </c>
       <c r="F8">
-        <v>2.828971680206706</v>
+        <v>2.374516704559241</v>
       </c>
       <c r="G8">
-        <v>0.0008101236074178082</v>
+        <v>0.0008402585516201926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2246985161318094</v>
+        <v>0.2100849430439382</v>
       </c>
       <c r="K8">
-        <v>0.9355550426407575</v>
+        <v>1.698331898615237</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.286994937756049</v>
+        <v>1.965629079833576</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.468719029476517</v>
+        <v>2.037415688660701</v>
       </c>
       <c r="C9">
-        <v>1.156938682859277</v>
+        <v>0.3517053905464422</v>
       </c>
       <c r="D9">
-        <v>0.02960583017859619</v>
+        <v>0.06972161404650734</v>
       </c>
       <c r="E9">
-        <v>0.1347259116098911</v>
+        <v>0.1491475470697665</v>
       </c>
       <c r="F9">
-        <v>3.499823266433822</v>
+        <v>2.766983287520262</v>
       </c>
       <c r="G9">
-        <v>0.0007866199839195125</v>
+        <v>0.0008227573159154208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2923372510859252</v>
+        <v>0.2684371899616309</v>
       </c>
       <c r="K9">
-        <v>1.273367646013739</v>
+        <v>2.271167625895941</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.228003647451018</v>
+        <v>1.955411437953643</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.383621484594983</v>
+        <v>2.4283080720665</v>
       </c>
       <c r="C10">
-        <v>1.400134088478978</v>
+        <v>0.4218782879129037</v>
       </c>
       <c r="D10">
-        <v>0.03505718277084924</v>
+        <v>0.08351418390381582</v>
       </c>
       <c r="E10">
-        <v>0.1594230931387344</v>
+        <v>0.1763223841523711</v>
       </c>
       <c r="F10">
-        <v>4.043709692834227</v>
+        <v>3.081769343898287</v>
       </c>
       <c r="G10">
-        <v>0.0007697955582872757</v>
+        <v>0.0008103997204049761</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3459954043663487</v>
+        <v>0.313928116988194</v>
       </c>
       <c r="K10">
-        <v>1.536027750114101</v>
+        <v>2.711019854524096</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.198856426169243</v>
+        <v>1.960653565382941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.814871751274893</v>
+        <v>2.610892577449363</v>
       </c>
       <c r="C11">
-        <v>1.514929839852186</v>
+        <v>0.4547192764371175</v>
       </c>
       <c r="D11">
-        <v>0.03757381689015915</v>
+        <v>0.08988408821730332</v>
       </c>
       <c r="E11">
-        <v>0.1711042809833074</v>
+        <v>0.1890423181507259</v>
       </c>
       <c r="F11">
-        <v>4.305854724572043</v>
+        <v>3.232116890743811</v>
       </c>
       <c r="G11">
-        <v>0.0007621904828268994</v>
+        <v>0.0008048653560666964</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3715696865274651</v>
+        <v>0.3353547196122548</v>
       </c>
       <c r="K11">
-        <v>1.659879445177992</v>
+        <v>2.916557597350703</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.189418928193206</v>
+        <v>1.96630548923585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.980752757805703</v>
+        <v>2.68082446765635</v>
       </c>
       <c r="C12">
-        <v>1.559117215955666</v>
+        <v>0.4673091858040266</v>
       </c>
       <c r="D12">
-        <v>0.03853308978054315</v>
+        <v>0.09231227094743133</v>
       </c>
       <c r="E12">
-        <v>0.1756032224468242</v>
+        <v>0.1939181293586145</v>
       </c>
       <c r="F12">
-        <v>4.407601637495588</v>
+        <v>3.290209796152908</v>
       </c>
       <c r="G12">
-        <v>0.0007593129264086602</v>
+        <v>0.0008027801965156985</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3814516105732366</v>
+        <v>0.3435890786840616</v>
       </c>
       <c r="K12">
-        <v>1.707527559067003</v>
+        <v>2.995296079432592</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.186468951797465</v>
+        <v>1.96896297459088</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.944905504992562</v>
+        <v>2.665726384836887</v>
       </c>
       <c r="C13">
-        <v>1.549566713767263</v>
+        <v>0.4645905144379014</v>
       </c>
       <c r="D13">
-        <v>0.03832619652440883</v>
+        <v>0.09178856586274264</v>
       </c>
       <c r="E13">
-        <v>0.1746307355908812</v>
+        <v>0.1928652801477355</v>
       </c>
       <c r="F13">
-        <v>4.385572035408131</v>
+        <v>3.277644622676235</v>
       </c>
       <c r="G13">
-        <v>0.0007599326383637695</v>
+        <v>0.0008032288354326566</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.379314048059868</v>
+        <v>0.3418100383236435</v>
       </c>
       <c r="K13">
-        <v>1.697230286601879</v>
+        <v>2.978295949363599</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.187075225165515</v>
+        <v>1.968366819147263</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.828464670518201</v>
+        <v>2.616629412206578</v>
       </c>
       <c r="C14">
-        <v>1.518550054208617</v>
+        <v>0.4557518418276914</v>
       </c>
       <c r="D14">
-        <v>0.03765260479573129</v>
+        <v>0.0900835208221622</v>
       </c>
       <c r="E14">
-        <v>0.1714728264579151</v>
+        <v>0.189442224211966</v>
       </c>
       <c r="F14">
-        <v>4.314173565544621</v>
+        <v>3.236872183115253</v>
       </c>
       <c r="G14">
-        <v>0.0007619537272255513</v>
+        <v>0.0008046936085163166</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3723785312199368</v>
+        <v>0.3360296553827737</v>
       </c>
       <c r="K14">
-        <v>1.663783731918727</v>
+        <v>2.923016553703121</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.189163261406151</v>
+        <v>1.966513464818391</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.757490054781499</v>
+        <v>2.586662468825182</v>
       </c>
       <c r="C15">
-        <v>1.499648615594708</v>
+        <v>0.4503586056441691</v>
       </c>
       <c r="D15">
-        <v>0.03724086004531557</v>
+        <v>0.08904129242380066</v>
       </c>
       <c r="E15">
-        <v>0.1695487194116723</v>
+        <v>0.1873534328183482</v>
       </c>
       <c r="F15">
-        <v>4.270774361447423</v>
+        <v>3.212053052205789</v>
       </c>
       <c r="G15">
-        <v>0.0007631918546328004</v>
+        <v>0.0008055921410626407</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3681570188189767</v>
+        <v>0.3325051875535507</v>
       </c>
       <c r="K15">
-        <v>1.64339808213245</v>
+        <v>2.889278166961077</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.190525890289081</v>
+        <v>1.965447091169466</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.355774917258373</v>
+        <v>2.416480418622143</v>
       </c>
       <c r="C16">
-        <v>1.392725371543861</v>
+        <v>0.4197523328938075</v>
       </c>
       <c r="D16">
-        <v>0.03489353603015388</v>
+        <v>0.0831000096299519</v>
       </c>
       <c r="E16">
-        <v>0.1586696116530035</v>
+        <v>0.1754989380098593</v>
       </c>
       <c r="F16">
-        <v>4.026903804073072</v>
+        <v>3.072098548307054</v>
       </c>
       <c r="G16">
-        <v>0.0007702931614756632</v>
+        <v>0.0008107629961547203</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3443499629932631</v>
+        <v>0.3125438417300614</v>
       </c>
       <c r="K16">
-        <v>1.528031470474986</v>
+        <v>2.697707245799165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.199556170931999</v>
+        <v>1.96035387216952</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.113464820313823</v>
+        <v>2.313371463345106</v>
       </c>
       <c r="C17">
-        <v>1.32827624366422</v>
+        <v>0.4012263334852832</v>
       </c>
       <c r="D17">
-        <v>0.03346360634802892</v>
+        <v>0.07948126388818366</v>
       </c>
       <c r="E17">
-        <v>0.1521174826290164</v>
+        <v>0.1683234009306886</v>
       </c>
       <c r="F17">
-        <v>3.881308588289698</v>
+        <v>2.988161152909811</v>
       </c>
       <c r="G17">
-        <v>0.000774658901254872</v>
+        <v>0.0008139561505240422</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3300633652759188</v>
+        <v>0.3004961302886073</v>
       </c>
       <c r="K17">
-        <v>1.458455948548007</v>
+        <v>2.581662667504929</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.206123998054679</v>
+        <v>1.958098205517587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.975483632589999</v>
+        <v>2.254507485224735</v>
       </c>
       <c r="C18">
-        <v>1.291590772623351</v>
+        <v>0.3906557347930573</v>
       </c>
       <c r="D18">
-        <v>0.0326445435455156</v>
+        <v>0.07740870391231169</v>
       </c>
       <c r="E18">
-        <v>0.1483901067750786</v>
+        <v>0.1642294146090748</v>
       </c>
       <c r="F18">
-        <v>3.798927772956034</v>
+        <v>2.940546859872825</v>
       </c>
       <c r="G18">
-        <v>0.0007771748346712234</v>
+        <v>0.0008158011015832832</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.321953691787769</v>
+        <v>0.2936345486125873</v>
       </c>
       <c r="K18">
-        <v>1.418840711734617</v>
+        <v>2.515421460222171</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.210256276982761</v>
+        <v>1.957105192910518</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.928992662313078</v>
+        <v>2.234649958567218</v>
       </c>
       <c r="C19">
-        <v>1.279232357664569</v>
+        <v>0.3870907044892249</v>
       </c>
       <c r="D19">
-        <v>0.03236777839405391</v>
+        <v>0.07670842428957769</v>
       </c>
       <c r="E19">
-        <v>0.1471348456685853</v>
+        <v>0.1628487448429539</v>
       </c>
       <c r="F19">
-        <v>3.771258833647892</v>
+        <v>2.924535802149194</v>
       </c>
       <c r="G19">
-        <v>0.0007780276543957176</v>
+        <v>0.0008164272574206916</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3192255372252362</v>
+        <v>0.2913225678954063</v>
       </c>
       <c r="K19">
-        <v>1.405493481829367</v>
+        <v>2.493076472633675</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.211714231143318</v>
+        <v>1.956819898198347</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.139112595730978</v>
+        <v>2.324301158269577</v>
       </c>
       <c r="C20">
-        <v>1.33509643070056</v>
+        <v>0.4031895053242636</v>
       </c>
       <c r="D20">
-        <v>0.03361546677253813</v>
+        <v>0.07986555411181229</v>
       </c>
       <c r="E20">
-        <v>0.1528106235657702</v>
+        <v>0.1690837615837424</v>
       </c>
       <c r="F20">
-        <v>3.896664084229769</v>
+        <v>2.997026776884383</v>
       </c>
       <c r="G20">
-        <v>0.0007741936876144404</v>
+        <v>0.0008136153848721214</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3315728595058118</v>
+        <v>0.3017714930137316</v>
       </c>
       <c r="K20">
-        <v>1.465819885197121</v>
+        <v>2.593962746480486</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.205387637513169</v>
+        <v>1.958306496166927</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.862592658029826</v>
+        <v>2.631028009684712</v>
       </c>
       <c r="C21">
-        <v>1.527639912665791</v>
+        <v>0.4583436168936714</v>
       </c>
       <c r="D21">
-        <v>0.0378502759589594</v>
+        <v>0.09058387909988141</v>
       </c>
       <c r="E21">
-        <v>0.1723982316744781</v>
+        <v>0.1904459915309431</v>
       </c>
       <c r="F21">
-        <v>4.335074607528895</v>
+        <v>3.248815444372553</v>
       </c>
       <c r="G21">
-        <v>0.0007613600621338268</v>
+        <v>0.0008042630985947588</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3744100375877224</v>
+        <v>0.3377240916193927</v>
       </c>
       <c r="K21">
-        <v>1.673586436045369</v>
+        <v>2.939227822069967</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.188532372706931</v>
+        <v>1.96704339710034</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.350683421806423</v>
+        <v>2.836160996459171</v>
       </c>
       <c r="C22">
-        <v>1.657725162543045</v>
+        <v>0.4952980777190703</v>
       </c>
       <c r="D22">
-        <v>0.04065514193685971</v>
+        <v>0.09768365716945482</v>
       </c>
       <c r="E22">
-        <v>0.1856467449706116</v>
+        <v>0.2047557791936114</v>
       </c>
       <c r="F22">
-        <v>4.636257823074828</v>
+        <v>3.420204961225807</v>
       </c>
       <c r="G22">
-        <v>0.0007529833633010963</v>
+        <v>0.0007982114680162901</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4035753778587434</v>
+        <v>0.3619323490575539</v>
       </c>
       <c r="K22">
-        <v>1.813805299721167</v>
+        <v>3.170225634781787</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.181196177516256</v>
+        <v>1.975794416964121</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.088630897645089</v>
+        <v>2.726212227994608</v>
       </c>
       <c r="C23">
-        <v>1.58786345370271</v>
+        <v>0.4754838737897273</v>
       </c>
       <c r="D23">
-        <v>0.03915436116398041</v>
+        <v>0.09388487969086157</v>
       </c>
       <c r="E23">
-        <v>0.1785306360274674</v>
+        <v>0.197083770666616</v>
       </c>
       <c r="F23">
-        <v>4.474034823352525</v>
+        <v>3.328058624223274</v>
       </c>
       <c r="G23">
-        <v>0.0007574549073446302</v>
+        <v>0.0008014364908709064</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3878911252600545</v>
+        <v>0.3489413716310139</v>
       </c>
       <c r="K23">
-        <v>1.738517388665585</v>
+        <v>3.046404210004312</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.184747120025108</v>
+        <v>1.970828428243451</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.127513136073958</v>
+        <v>2.319358559237287</v>
       </c>
       <c r="C24">
-        <v>1.332011889059402</v>
+        <v>0.4023017069895047</v>
       </c>
       <c r="D24">
-        <v>0.03354680133116261</v>
+        <v>0.07969179204884114</v>
       </c>
       <c r="E24">
-        <v>0.1524971322524564</v>
+        <v>0.1687399055219814</v>
       </c>
       <c r="F24">
-        <v>3.889717767598455</v>
+        <v>2.993016636992451</v>
       </c>
       <c r="G24">
-        <v>0.0007744039915864368</v>
+        <v>0.0008137694163591977</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.330890095794544</v>
+        <v>0.3011947007915126</v>
       </c>
       <c r="K24">
-        <v>1.46248946014461</v>
+        <v>2.58840041231511</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.20571944163261</v>
+        <v>1.958211385209097</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142740186889228</v>
+        <v>1.89704910584959</v>
       </c>
       <c r="C25">
-        <v>1.070384633055426</v>
+        <v>0.3265479221332726</v>
       </c>
       <c r="D25">
-        <v>0.02762514636067692</v>
+        <v>0.06471315531451438</v>
       </c>
       <c r="E25">
-        <v>0.1259601250940428</v>
+        <v>0.1394115669078886</v>
       </c>
       <c r="F25">
-        <v>3.310481674575811</v>
+        <v>2.65660334166472</v>
       </c>
       <c r="G25">
-        <v>0.0007928859920085354</v>
+        <v>0.0008273973048682218</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.273434572754951</v>
+        <v>0.252241957432318</v>
       </c>
       <c r="K25">
-        <v>1.17980765589374</v>
+        <v>2.113274170959045</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.241692896792486</v>
+        <v>1.956091580620523</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.59688576826224</v>
+        <v>1.028590796940392</v>
       </c>
       <c r="C2">
-        <v>0.2728124079214069</v>
+        <v>0.2422255434013039</v>
       </c>
       <c r="D2">
-        <v>0.05389289655974494</v>
+        <v>0.1684619071484548</v>
       </c>
       <c r="E2">
-        <v>0.1186410797556547</v>
+        <v>0.1601997334106713</v>
       </c>
       <c r="F2">
-        <v>2.426141673261853</v>
+        <v>1.081768521676253</v>
       </c>
       <c r="G2">
-        <v>0.0008377755545039547</v>
+        <v>0.7404947160427042</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001904214520168424</v>
       </c>
       <c r="J2">
-        <v>0.2178974216144098</v>
+        <v>0.5397489336373127</v>
       </c>
       <c r="K2">
-        <v>1.77571144996017</v>
+        <v>0.4769067067224846</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1920151797112126</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.229441165029158</v>
       </c>
       <c r="N2">
-        <v>1.9629046969293</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9520443037746862</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.398695430533195</v>
+        <v>0.894701428247771</v>
       </c>
       <c r="C3">
-        <v>0.2373694221092109</v>
+        <v>0.20941390356451</v>
       </c>
       <c r="D3">
-        <v>0.04665685811022513</v>
+        <v>0.1482287641678255</v>
       </c>
       <c r="E3">
-        <v>0.1049717591917521</v>
+        <v>0.1424147444156496</v>
       </c>
       <c r="F3">
-        <v>2.278874104983956</v>
+        <v>1.028797747058746</v>
       </c>
       <c r="G3">
-        <v>0.0008450519389659037</v>
+        <v>0.7071369854093774</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003345141687431052</v>
       </c>
       <c r="J3">
-        <v>0.1954686364452343</v>
+        <v>0.5301768812226726</v>
       </c>
       <c r="K3">
-        <v>1.552874559541721</v>
+        <v>0.4700626956961251</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1721013848014721</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.068329007418924</v>
       </c>
       <c r="N3">
-        <v>1.972097311548097</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9911932776516732</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.279149586252004</v>
+        <v>0.8123477464977782</v>
       </c>
       <c r="C4">
-        <v>0.2160003954125642</v>
+        <v>0.189665857728059</v>
       </c>
       <c r="D4">
-        <v>0.04225202854873089</v>
+        <v>0.135973575542593</v>
       </c>
       <c r="E4">
-        <v>0.09674815834556938</v>
+        <v>0.1316677805837116</v>
       </c>
       <c r="F4">
-        <v>2.192312310903404</v>
+        <v>0.997445288949308</v>
       </c>
       <c r="G4">
-        <v>0.0008496478889117909</v>
+        <v>0.6874744309024265</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004549327988911944</v>
       </c>
       <c r="J4">
-        <v>0.1820525333710989</v>
+        <v>0.524813532881268</v>
       </c>
       <c r="K4">
-        <v>1.418473829029864</v>
+        <v>0.4662273839235382</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.160094023775855</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9697297401949356</v>
       </c>
       <c r="N4">
-        <v>1.979808469990331</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.016024068074101</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.230913587107153</v>
+        <v>0.7779398443435355</v>
       </c>
       <c r="C5">
-        <v>0.2073793993880741</v>
+        <v>0.1821187675969895</v>
       </c>
       <c r="D5">
-        <v>0.04046531198676462</v>
+        <v>0.131143524389671</v>
       </c>
       <c r="E5">
-        <v>0.09343533095008993</v>
+        <v>0.127363183701199</v>
       </c>
       <c r="F5">
-        <v>2.157935491674152</v>
+        <v>0.9841824374803991</v>
       </c>
       <c r="G5">
-        <v>0.0008515541594475379</v>
+        <v>0.6789324722971912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005195692441754218</v>
       </c>
       <c r="J5">
-        <v>0.1766662319597145</v>
+        <v>0.5223830320305751</v>
       </c>
       <c r="K5">
-        <v>1.364245293875769</v>
+        <v>0.464240173118732</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.155229243688467</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9294426513615406</v>
       </c>
       <c r="N5">
-        <v>1.983444588512512</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.0260425212209</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.222931372440058</v>
+        <v>0.7712397423871096</v>
       </c>
       <c r="C6">
-        <v>0.2059528196182896</v>
+        <v>0.1813723134832799</v>
       </c>
       <c r="D6">
-        <v>0.04016909337303787</v>
+        <v>0.1304967083975868</v>
       </c>
       <c r="E6">
-        <v>0.09288743684710354</v>
+        <v>0.1266931883509521</v>
       </c>
       <c r="F6">
-        <v>2.152279436908131</v>
+        <v>0.9810613897456761</v>
       </c>
       <c r="G6">
-        <v>0.00085187274247178</v>
+        <v>0.6766416588085207</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005411602585965625</v>
       </c>
       <c r="J6">
-        <v>0.1757764892969078</v>
+        <v>0.521536060457862</v>
       </c>
       <c r="K6">
-        <v>1.355271454485518</v>
+        <v>0.4632895653008866</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1543967198628806</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9225452707648287</v>
       </c>
       <c r="N6">
-        <v>1.984077462524724</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.027359397003075</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.278497190682572</v>
+        <v>0.8091863187119657</v>
       </c>
       <c r="C7">
-        <v>0.2158837920990493</v>
+        <v>0.1909352073517283</v>
       </c>
       <c r="D7">
-        <v>0.04222790035972679</v>
+        <v>0.1363264113786897</v>
       </c>
       <c r="E7">
-        <v>0.0967033304790732</v>
+        <v>0.1317254956724589</v>
       </c>
       <c r="F7">
-        <v>2.191845150593792</v>
+        <v>0.9947101925787649</v>
       </c>
       <c r="G7">
-        <v>0.0008496734609397321</v>
+        <v>0.6849434619587527</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004824548482091018</v>
       </c>
       <c r="J7">
-        <v>0.1819795751254389</v>
+        <v>0.5235499298212858</v>
       </c>
       <c r="K7">
-        <v>1.417740380627663</v>
+        <v>0.4644909946240006</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1599523240238412</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9686056850023306</v>
       </c>
       <c r="N7">
-        <v>1.979855541645222</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.015193969016323</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.52806773955615</v>
+        <v>0.9788387653662483</v>
       </c>
       <c r="C8">
-        <v>0.2605026809292781</v>
+        <v>0.2326511081220133</v>
       </c>
       <c r="D8">
-        <v>0.05138918251633129</v>
+        <v>0.1620045641925429</v>
       </c>
       <c r="E8">
-        <v>0.1138900787635251</v>
+        <v>0.1541829293471579</v>
       </c>
       <c r="F8">
-        <v>2.374516704559241</v>
+        <v>1.059865864776384</v>
       </c>
       <c r="G8">
-        <v>0.0008402585516201926</v>
+        <v>0.7256170197081531</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002646844221523281</v>
       </c>
       <c r="J8">
-        <v>0.2100849430439382</v>
+        <v>0.534714186654341</v>
       </c>
       <c r="K8">
-        <v>1.698331898615237</v>
+        <v>0.4722101533130569</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1849988725000102</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.173028477845719</v>
       </c>
       <c r="N8">
-        <v>1.965629079833576</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9641651735571486</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.037415688660701</v>
+        <v>1.315663107911007</v>
       </c>
       <c r="C9">
-        <v>0.3517053905464422</v>
+        <v>0.3155598876140573</v>
       </c>
       <c r="D9">
-        <v>0.06972161404650734</v>
+        <v>0.2130870314104811</v>
       </c>
       <c r="E9">
-        <v>0.1491475470697665</v>
+        <v>0.1995473897197968</v>
       </c>
       <c r="F9">
-        <v>2.766983287520262</v>
+        <v>1.202315345082653</v>
       </c>
       <c r="G9">
-        <v>0.0008227573159154208</v>
+        <v>0.8168081983256457</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007001996115638676</v>
       </c>
       <c r="J9">
-        <v>0.2684371899616309</v>
+        <v>0.5631463200889186</v>
       </c>
       <c r="K9">
-        <v>2.271167625895941</v>
+        <v>0.4935217378486456</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2362062470153177</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.578330152067821</v>
       </c>
       <c r="N9">
-        <v>1.955411437953643</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8722394209131217</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.4283080720665</v>
+        <v>1.561867439316586</v>
       </c>
       <c r="C10">
-        <v>0.4218782879129037</v>
+        <v>0.3799737152934028</v>
       </c>
       <c r="D10">
-        <v>0.08351418390381582</v>
+        <v>0.2519495143974808</v>
       </c>
       <c r="E10">
-        <v>0.1763223841523711</v>
+        <v>0.2341066244943661</v>
       </c>
       <c r="F10">
-        <v>3.081769343898287</v>
+        <v>1.313056758319092</v>
       </c>
       <c r="G10">
-        <v>0.0008103997204049761</v>
+        <v>0.8878390886899297</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001319418779260673</v>
       </c>
       <c r="J10">
-        <v>0.313928116988194</v>
+        <v>0.5864767253589775</v>
       </c>
       <c r="K10">
-        <v>2.711019854524096</v>
+        <v>0.5105573061196793</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2752914946639748</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.879043592093581</v>
       </c>
       <c r="N10">
-        <v>1.960653565382941</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.808643401946842</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.610892577449363</v>
+        <v>1.669424122846209</v>
       </c>
       <c r="C11">
-        <v>0.4547192764371175</v>
+        <v>0.4123488067068877</v>
       </c>
       <c r="D11">
-        <v>0.08988408821730332</v>
+        <v>0.2706219518236566</v>
       </c>
       <c r="E11">
-        <v>0.1890423181507259</v>
+        <v>0.2503287545313384</v>
       </c>
       <c r="F11">
-        <v>3.232116890743811</v>
+        <v>1.361118210615842</v>
       </c>
       <c r="G11">
-        <v>0.0008048653560666964</v>
+        <v>0.9175449420266375</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002454874382106453</v>
       </c>
       <c r="J11">
-        <v>0.3353547196122548</v>
+        <v>0.5958531641423264</v>
       </c>
       <c r="K11">
-        <v>2.916557597350703</v>
+        <v>0.5160949570656328</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2933410380601771</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.015800846533807</v>
       </c>
       <c r="N11">
-        <v>1.96630548923585</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.779494186191048</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.68082446765635</v>
+        <v>1.712632618051032</v>
       </c>
       <c r="C12">
-        <v>0.4673091858040266</v>
+        <v>0.4235048701044377</v>
       </c>
       <c r="D12">
-        <v>0.09231227094743133</v>
+        <v>0.2773699488174657</v>
       </c>
       <c r="E12">
-        <v>0.1939181293586145</v>
+        <v>0.2564208946316526</v>
       </c>
       <c r="F12">
-        <v>3.290209796152908</v>
+        <v>1.381846234441142</v>
       </c>
       <c r="G12">
-        <v>0.0008027801965156985</v>
+        <v>0.9311120625246332</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002761995201543854</v>
       </c>
       <c r="J12">
-        <v>0.3435890786840616</v>
+        <v>0.6005826394309537</v>
       </c>
       <c r="K12">
-        <v>2.995296079432592</v>
+        <v>0.519753254864014</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3003098423189954</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.068300500477676</v>
       </c>
       <c r="N12">
-        <v>1.96896297459088</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7692960061286449</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.665726384836887</v>
+        <v>1.703818165286549</v>
       </c>
       <c r="C13">
-        <v>0.4645905144379014</v>
+        <v>0.4208489632603687</v>
       </c>
       <c r="D13">
-        <v>0.09178856586274264</v>
+        <v>0.2758398828861317</v>
       </c>
       <c r="E13">
-        <v>0.1928652801477355</v>
+        <v>0.2550863159774366</v>
       </c>
       <c r="F13">
-        <v>3.277644622676235</v>
+        <v>1.377817647677531</v>
       </c>
       <c r="G13">
-        <v>0.0008032288354326566</v>
+        <v>0.9286036272393972</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002650347079805826</v>
       </c>
       <c r="J13">
-        <v>0.3418100383236435</v>
+        <v>0.5997720058238656</v>
       </c>
       <c r="K13">
-        <v>2.978295949363599</v>
+        <v>0.5192575090839142</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2988201112015219</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.057096405215503</v>
       </c>
       <c r="N13">
-        <v>1.968366819147263</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7716194214575509</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.616629412206578</v>
+        <v>1.673187339225166</v>
       </c>
       <c r="C14">
-        <v>0.4557518418276914</v>
+        <v>0.4131589416997201</v>
       </c>
       <c r="D14">
-        <v>0.0900835208221622</v>
+        <v>0.2711444597423025</v>
       </c>
       <c r="E14">
-        <v>0.189442224211966</v>
+        <v>0.2508203334294308</v>
       </c>
       <c r="F14">
-        <v>3.236872183115253</v>
+        <v>1.363008177196392</v>
       </c>
       <c r="G14">
-        <v>0.0008046936085163166</v>
+        <v>0.9188364899751633</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002460365482086502</v>
       </c>
       <c r="J14">
-        <v>0.3360296553827737</v>
+        <v>0.5963304670438276</v>
       </c>
       <c r="K14">
-        <v>2.923016553703121</v>
+        <v>0.5165199105839093</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2939190149035369</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.020163356558385</v>
       </c>
       <c r="N14">
-        <v>1.966513464818391</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7787092126654862</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.586662468825182</v>
+        <v>1.653461614507904</v>
       </c>
       <c r="C15">
-        <v>0.4503586056441691</v>
+        <v>0.4089523472251813</v>
       </c>
       <c r="D15">
-        <v>0.08904129242380066</v>
+        <v>0.2684215063144393</v>
       </c>
       <c r="E15">
-        <v>0.1873534328183482</v>
+        <v>0.2482538043555991</v>
       </c>
       <c r="F15">
-        <v>3.212053052205789</v>
+        <v>1.353092560857348</v>
       </c>
       <c r="G15">
-        <v>0.0008055921410626407</v>
+        <v>0.9120494237424879</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002441582083311467</v>
       </c>
       <c r="J15">
-        <v>0.3325051875535507</v>
+        <v>0.5938180881552313</v>
       </c>
       <c r="K15">
-        <v>2.889278166961077</v>
+        <v>0.5142719602504968</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2908978707648799</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.997346792841398</v>
       </c>
       <c r="N15">
-        <v>1.965447091169466</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7828065812927463</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.416480418622143</v>
+        <v>1.546699612883828</v>
       </c>
       <c r="C16">
-        <v>0.4197523328938075</v>
+        <v>0.3819682481999962</v>
       </c>
       <c r="D16">
-        <v>0.0831000096299519</v>
+        <v>0.2519708751936918</v>
       </c>
       <c r="E16">
-        <v>0.1754989380098593</v>
+        <v>0.2333892845046535</v>
       </c>
       <c r="F16">
-        <v>3.072098548307054</v>
+        <v>1.30250761541005</v>
       </c>
       <c r="G16">
-        <v>0.0008107629961547203</v>
+        <v>0.8789039109531984</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001947510024662868</v>
       </c>
       <c r="J16">
-        <v>0.3125438417300614</v>
+        <v>0.5823371012867824</v>
       </c>
       <c r="K16">
-        <v>2.697707245799165</v>
+        <v>0.5052877236032813</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2738886271470022</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.868313733361305</v>
       </c>
       <c r="N16">
-        <v>1.96035387216952</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8082805117514802</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.313371463345106</v>
+        <v>1.481299825244406</v>
       </c>
       <c r="C17">
-        <v>0.4012263334852832</v>
+        <v>0.3655989724405515</v>
       </c>
       <c r="D17">
-        <v>0.07948126388818366</v>
+        <v>0.241952346698497</v>
       </c>
       <c r="E17">
-        <v>0.1683234009306886</v>
+        <v>0.2243522658803556</v>
       </c>
       <c r="F17">
-        <v>2.988161152909811</v>
+        <v>1.2720099566681</v>
       </c>
       <c r="G17">
-        <v>0.0008139561505240422</v>
+        <v>0.858962282400185</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00178012896762958</v>
       </c>
       <c r="J17">
-        <v>0.3004961302886073</v>
+        <v>0.5755094587854046</v>
       </c>
       <c r="K17">
-        <v>2.581662667504929</v>
+        <v>0.4999460654752852</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2635625938515318</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.789439064702776</v>
       </c>
       <c r="N17">
-        <v>1.958098205517587</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.824180567215496</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.254507485224735</v>
+        <v>1.446166890194064</v>
       </c>
       <c r="C18">
-        <v>0.3906557347930573</v>
+        <v>0.3550066832243601</v>
       </c>
       <c r="D18">
-        <v>0.07740870391231169</v>
+        <v>0.235841409262818</v>
       </c>
       <c r="E18">
-        <v>0.1642294146090748</v>
+        <v>0.21908098456624</v>
       </c>
       <c r="F18">
-        <v>2.940546859872825</v>
+        <v>1.256907190480845</v>
       </c>
       <c r="G18">
-        <v>0.0008158011015832832</v>
+        <v>0.8497510450364558</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00148138668840847</v>
       </c>
       <c r="J18">
-        <v>0.2936345486125873</v>
+        <v>0.5727300069475945</v>
       </c>
       <c r="K18">
-        <v>2.515421460222171</v>
+        <v>0.4984188145316537</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2577309075410597</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.744713026075715</v>
       </c>
       <c r="N18">
-        <v>1.957105192910518</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8341219811698508</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.234649958567218</v>
+        <v>1.432383770561955</v>
       </c>
       <c r="C19">
-        <v>0.3870907044892249</v>
+        <v>0.3523879099952865</v>
       </c>
       <c r="D19">
-        <v>0.07670842428957769</v>
+        <v>0.2340651874795583</v>
       </c>
       <c r="E19">
-        <v>0.1628487448429539</v>
+        <v>0.2173796085906119</v>
       </c>
       <c r="F19">
-        <v>2.924535802149194</v>
+        <v>1.250088818783993</v>
       </c>
       <c r="G19">
-        <v>0.0008164272574206916</v>
+        <v>0.8450188769880356</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001577915676048924</v>
       </c>
       <c r="J19">
-        <v>0.2913225678954063</v>
+        <v>0.5709753198261751</v>
       </c>
       <c r="K19">
-        <v>2.493076472633675</v>
+        <v>0.4967658846360195</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2557088629385618</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.729164988403994</v>
       </c>
       <c r="N19">
-        <v>1.956819898198347</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8369657308327199</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.324301158269577</v>
+        <v>1.488451251069961</v>
       </c>
       <c r="C20">
-        <v>0.4031895053242636</v>
+        <v>0.3672372835007138</v>
       </c>
       <c r="D20">
-        <v>0.07986555411181229</v>
+        <v>0.2429867682129156</v>
       </c>
       <c r="E20">
-        <v>0.1690837615837424</v>
+        <v>0.2253032837784374</v>
       </c>
       <c r="F20">
-        <v>2.997026776884383</v>
+        <v>1.275413504190041</v>
       </c>
       <c r="G20">
-        <v>0.0008136153848721214</v>
+        <v>0.8612371766643463</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001773131135849759</v>
       </c>
       <c r="J20">
-        <v>0.3017714930137316</v>
+        <v>0.5763123543120656</v>
       </c>
       <c r="K20">
-        <v>2.593962746480486</v>
+        <v>0.5006249206948894</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2646633470992015</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.797868175839625</v>
       </c>
       <c r="N20">
-        <v>1.958306496166927</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.822532116102364</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.631028009684712</v>
+        <v>1.679419664393663</v>
       </c>
       <c r="C21">
-        <v>0.4583436168936714</v>
+        <v>0.4168041149128499</v>
       </c>
       <c r="D21">
-        <v>0.09058387909988141</v>
+        <v>0.2729408630603416</v>
       </c>
       <c r="E21">
-        <v>0.1904459915309431</v>
+        <v>0.2521854881904773</v>
       </c>
       <c r="F21">
-        <v>3.248815444372553</v>
+        <v>1.364831646963296</v>
       </c>
       <c r="G21">
-        <v>0.0008042630985947588</v>
+        <v>0.9193266098688184</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002762615251575617</v>
       </c>
       <c r="J21">
-        <v>0.3377240916193927</v>
+        <v>0.5961422041192748</v>
       </c>
       <c r="K21">
-        <v>2.939227822069967</v>
+        <v>0.5156623058083767</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.295277810906498</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.030387524969598</v>
       </c>
       <c r="N21">
-        <v>1.96704339710034</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7758713297628503</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.836160996459171</v>
+        <v>1.808105381154832</v>
       </c>
       <c r="C22">
-        <v>0.4952980777190703</v>
+        <v>0.4480880799894464</v>
       </c>
       <c r="D22">
-        <v>0.09768365716945482</v>
+        <v>0.2922436982429275</v>
       </c>
       <c r="E22">
-        <v>0.2047557791936114</v>
+        <v>0.2698984091816499</v>
       </c>
       <c r="F22">
-        <v>3.420204961225807</v>
+        <v>1.428327301606657</v>
       </c>
       <c r="G22">
-        <v>0.0007982114680162901</v>
+        <v>0.9616702940449642</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003555630931441733</v>
       </c>
       <c r="J22">
-        <v>0.3619323490575539</v>
+        <v>0.6113632106074078</v>
       </c>
       <c r="K22">
-        <v>3.170225634781787</v>
+        <v>0.5281833239257097</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3157688235373826</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.184167727063823</v>
       </c>
       <c r="N22">
-        <v>1.975794416964121</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7472530336334238</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.726212227994608</v>
+        <v>1.74272155978079</v>
       </c>
       <c r="C23">
-        <v>0.4754838737897273</v>
+        <v>0.4296526477042732</v>
       </c>
       <c r="D23">
-        <v>0.09388487969086157</v>
+        <v>0.2814119504953396</v>
       </c>
       <c r="E23">
-        <v>0.197083770666616</v>
+        <v>0.2602798959910189</v>
       </c>
       <c r="F23">
-        <v>3.328058624223274</v>
+        <v>1.397296424961198</v>
       </c>
       <c r="G23">
-        <v>0.0008014364908709064</v>
+        <v>0.9418009246895025</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002806715082380506</v>
       </c>
       <c r="J23">
-        <v>0.3489413716310139</v>
+        <v>0.6046104346640959</v>
       </c>
       <c r="K23">
-        <v>3.046404210004312</v>
+        <v>0.523446364782707</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3048904893185664</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.102737892325763</v>
       </c>
       <c r="N23">
-        <v>1.970828428243451</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7633434184102867</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.319358559237287</v>
+        <v>1.490420295793911</v>
       </c>
       <c r="C24">
-        <v>0.4023017069895047</v>
+        <v>0.3638720914101441</v>
       </c>
       <c r="D24">
-        <v>0.07969179204884114</v>
+        <v>0.2417274005360781</v>
       </c>
       <c r="E24">
-        <v>0.1687399055219814</v>
+        <v>0.2246576173692674</v>
       </c>
       <c r="F24">
-        <v>2.993016636992451</v>
+        <v>1.278642133250244</v>
       </c>
       <c r="G24">
-        <v>0.0008137694163591977</v>
+        <v>0.8647028182556085</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001288573618395183</v>
       </c>
       <c r="J24">
-        <v>0.3011947007915126</v>
+        <v>0.5782181417204697</v>
       </c>
       <c r="K24">
-        <v>2.58840041231511</v>
+        <v>0.5034659171679223</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2643136084153497</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.795213682821213</v>
       </c>
       <c r="N24">
-        <v>1.958211385209097</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.824753318582081</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.89704910584959</v>
+        <v>1.21956306724573</v>
       </c>
       <c r="C25">
-        <v>0.3265479221332726</v>
+        <v>0.2952101716331015</v>
       </c>
       <c r="D25">
-        <v>0.06471315531451438</v>
+        <v>0.1998522028535064</v>
       </c>
       <c r="E25">
-        <v>0.1394115669078886</v>
+        <v>0.1872969725852514</v>
       </c>
       <c r="F25">
-        <v>2.65660334166472</v>
+        <v>1.157949362612442</v>
       </c>
       <c r="G25">
-        <v>0.0008273973048682218</v>
+        <v>0.7869191448093886</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001339613710664267</v>
       </c>
       <c r="J25">
-        <v>0.252241957432318</v>
+        <v>0.5527387454526718</v>
       </c>
       <c r="K25">
-        <v>2.113274170959045</v>
+        <v>0.4843186348780435</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2219717121451765</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.46710717794258</v>
       </c>
       <c r="N25">
-        <v>1.956091580620523</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8948400235165916</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.028590796940392</v>
+        <v>0.96322786353997</v>
       </c>
       <c r="C2">
-        <v>0.2422255434013039</v>
+        <v>0.2757346421021794</v>
       </c>
       <c r="D2">
-        <v>0.1684619071484548</v>
+        <v>0.1801849789080165</v>
       </c>
       <c r="E2">
-        <v>0.1601997334106713</v>
+        <v>0.1636350731735021</v>
       </c>
       <c r="F2">
-        <v>1.081768521676253</v>
+        <v>1.002363242599102</v>
       </c>
       <c r="G2">
-        <v>0.7404947160427042</v>
+        <v>0.6502880128504103</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001904214520168424</v>
+        <v>0.001300812536053186</v>
       </c>
       <c r="J2">
-        <v>0.5397489336373127</v>
+        <v>0.5230692616444657</v>
       </c>
       <c r="K2">
-        <v>0.4769067067224846</v>
+        <v>0.4159914500173905</v>
       </c>
       <c r="L2">
-        <v>0.1920151797112126</v>
+        <v>0.19921071614597</v>
       </c>
       <c r="M2">
-        <v>1.229441165029158</v>
+        <v>0.1191555448048973</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1901187084122569</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.217902025001194</v>
       </c>
       <c r="P2">
-        <v>0.9520443037746862</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9014350047236439</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.894701428247771</v>
+        <v>0.8417068152290312</v>
       </c>
       <c r="C3">
-        <v>0.20941390356451</v>
+        <v>0.2366328385786431</v>
       </c>
       <c r="D3">
-        <v>0.1482287641678255</v>
+        <v>0.1580881010053758</v>
       </c>
       <c r="E3">
-        <v>0.1424147444156496</v>
+        <v>0.1453563791265253</v>
       </c>
       <c r="F3">
-        <v>1.028797747058746</v>
+        <v>0.957616477788406</v>
       </c>
       <c r="G3">
-        <v>0.7071369854093774</v>
+        <v>0.6269707398121085</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003345141687431052</v>
+        <v>0.002224402236694623</v>
       </c>
       <c r="J3">
-        <v>0.5301768812226726</v>
+        <v>0.5122410713200765</v>
       </c>
       <c r="K3">
-        <v>0.4700626956961251</v>
+        <v>0.4135379357637774</v>
       </c>
       <c r="L3">
-        <v>0.1721013848014721</v>
+        <v>0.202823212241082</v>
       </c>
       <c r="M3">
-        <v>1.068329007418924</v>
+        <v>0.1148532841482321</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1705061072195591</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.059567425915731</v>
       </c>
       <c r="P3">
-        <v>0.9911932776516732</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9384969772637008</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8123477464977782</v>
+        <v>0.7666826484157525</v>
       </c>
       <c r="C4">
-        <v>0.189665857728059</v>
+        <v>0.2131526894645219</v>
       </c>
       <c r="D4">
-        <v>0.135973575542593</v>
+        <v>0.1447212509571472</v>
       </c>
       <c r="E4">
-        <v>0.1316677805837116</v>
+        <v>0.1343099701740975</v>
       </c>
       <c r="F4">
-        <v>0.997445288949308</v>
+        <v>0.9310358235570746</v>
       </c>
       <c r="G4">
-        <v>0.6874744309024265</v>
+        <v>0.6134399868387419</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004549327988911944</v>
+        <v>0.003042480716235474</v>
       </c>
       <c r="J4">
-        <v>0.524813532881268</v>
+        <v>0.5057390155511143</v>
       </c>
       <c r="K4">
-        <v>0.4662273839235382</v>
+        <v>0.4122452563470418</v>
       </c>
       <c r="L4">
-        <v>0.160094023775855</v>
+        <v>0.2050318396083988</v>
       </c>
       <c r="M4">
-        <v>0.9697297401949356</v>
+        <v>0.1129018914789341</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1586672957578301</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9625086653188362</v>
       </c>
       <c r="P4">
-        <v>1.016024068074101</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9620097226951598</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7779398443435355</v>
+        <v>0.735239061728862</v>
       </c>
       <c r="C5">
-        <v>0.1821187675969895</v>
+        <v>0.204136258788381</v>
       </c>
       <c r="D5">
-        <v>0.131143524389671</v>
+        <v>0.1394471215430571</v>
       </c>
       <c r="E5">
-        <v>0.127363183701199</v>
+        <v>0.1298839928945661</v>
       </c>
       <c r="F5">
-        <v>0.9841824374803991</v>
+        <v>0.9196937680415047</v>
       </c>
       <c r="G5">
-        <v>0.6789324722971912</v>
+        <v>0.6074477506721792</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005195692441754218</v>
+        <v>0.003526174435018348</v>
       </c>
       <c r="J5">
-        <v>0.5223830320305751</v>
+        <v>0.5027677497317597</v>
       </c>
       <c r="K5">
-        <v>0.464240173118732</v>
+        <v>0.4113091725038167</v>
       </c>
       <c r="L5">
-        <v>0.155229243688467</v>
+        <v>0.20570948144886</v>
       </c>
       <c r="M5">
-        <v>0.9294426513615406</v>
+        <v>0.1121512629680854</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1538680596287065</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9228159248352199</v>
       </c>
       <c r="P5">
-        <v>1.0260425212209</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9715556202657307</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7712397423871096</v>
+        <v>0.729077730120764</v>
       </c>
       <c r="C6">
-        <v>0.1813723134832799</v>
+        <v>0.2031716240626338</v>
       </c>
       <c r="D6">
-        <v>0.1304967083975868</v>
+        <v>0.1387280224482765</v>
       </c>
       <c r="E6">
-        <v>0.1266931883509521</v>
+        <v>0.1291933759782431</v>
       </c>
       <c r="F6">
-        <v>0.9810613897456761</v>
+        <v>0.9169405462604558</v>
       </c>
       <c r="G6">
-        <v>0.6766416588085207</v>
+        <v>0.6056524765311622</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005411602585965625</v>
+        <v>0.003729052395768484</v>
       </c>
       <c r="J6">
-        <v>0.521536060457862</v>
+        <v>0.5018409424347965</v>
       </c>
       <c r="K6">
-        <v>0.4632895653008866</v>
+        <v>0.4105949606884707</v>
       </c>
       <c r="L6">
-        <v>0.1543967198628806</v>
+        <v>0.2055540845608057</v>
       </c>
       <c r="M6">
-        <v>0.9225452707648287</v>
+        <v>0.1118814831644652</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1530469515701611</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9160209362689216</v>
       </c>
       <c r="P6">
-        <v>1.027359397003075</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9728836100035734</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8091863187119657</v>
+        <v>0.7631130215472979</v>
       </c>
       <c r="C7">
-        <v>0.1909352073517283</v>
+        <v>0.2138824315377974</v>
       </c>
       <c r="D7">
-        <v>0.1363264113786897</v>
+        <v>0.1453465304660142</v>
       </c>
       <c r="E7">
-        <v>0.1317254956724589</v>
+        <v>0.1344391977826973</v>
       </c>
       <c r="F7">
-        <v>0.9947101925787649</v>
+        <v>0.9269194123567317</v>
       </c>
       <c r="G7">
-        <v>0.6849434619587527</v>
+        <v>0.6142885696513929</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.004824548482091018</v>
+        <v>0.003359941538104039</v>
       </c>
       <c r="J7">
-        <v>0.5235499298212858</v>
+        <v>0.4989345113024655</v>
       </c>
       <c r="K7">
-        <v>0.4644909946240006</v>
+        <v>0.4100545694055953</v>
       </c>
       <c r="L7">
-        <v>0.1599523240238412</v>
+        <v>0.204024415547412</v>
       </c>
       <c r="M7">
-        <v>0.9686056850023306</v>
+        <v>0.1122664507293507</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1584802252804494</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9601491960528108</v>
       </c>
       <c r="P7">
-        <v>1.015193969016323</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9610925829156249</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9788387653662483</v>
+        <v>0.9160221373685147</v>
       </c>
       <c r="C8">
-        <v>0.2326511081220133</v>
+        <v>0.2620806496040302</v>
       </c>
       <c r="D8">
-        <v>0.1620045641925429</v>
+        <v>0.1740071362596893</v>
       </c>
       <c r="E8">
-        <v>0.1541829293471579</v>
+        <v>0.157693983539879</v>
       </c>
       <c r="F8">
-        <v>1.059865864776384</v>
+        <v>0.9784090115291519</v>
       </c>
       <c r="G8">
-        <v>0.7256170197081531</v>
+        <v>0.6496853582631132</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002646844221523281</v>
+        <v>0.001941199224668289</v>
       </c>
       <c r="J8">
-        <v>0.534714186654341</v>
+        <v>0.4994783532867189</v>
       </c>
       <c r="K8">
-        <v>0.4722101533130569</v>
+        <v>0.4109748861779643</v>
       </c>
       <c r="L8">
-        <v>0.1849988725000102</v>
+        <v>0.1986707108565824</v>
       </c>
       <c r="M8">
-        <v>1.173028477845719</v>
+        <v>0.1162047231477423</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1830499640773979</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.158274062451881</v>
       </c>
       <c r="P8">
-        <v>0.9641651735571486</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9122284964538245</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.315663107911007</v>
+        <v>1.219619847447859</v>
       </c>
       <c r="C9">
-        <v>0.3155598876140573</v>
+        <v>0.3607503656815823</v>
       </c>
       <c r="D9">
-        <v>0.2130870314104811</v>
+        <v>0.2301891146097859</v>
       </c>
       <c r="E9">
-        <v>0.1995473897197968</v>
+        <v>0.2043738961183834</v>
       </c>
       <c r="F9">
-        <v>1.202315345082653</v>
+        <v>1.097054446651711</v>
       </c>
       <c r="G9">
-        <v>0.8168081983256457</v>
+        <v>0.7183784658373469</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007001996115638676</v>
+        <v>0.0008068955111637521</v>
       </c>
       <c r="J9">
-        <v>0.5631463200889186</v>
+        <v>0.5237477666434387</v>
       </c>
       <c r="K9">
-        <v>0.4935217378486456</v>
+        <v>0.4196669611876302</v>
       </c>
       <c r="L9">
-        <v>0.2362062470153177</v>
+        <v>0.1903586692903403</v>
       </c>
       <c r="M9">
-        <v>1.578330152067821</v>
+        <v>0.131066158284149</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2333447422748662</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.554293359546108</v>
       </c>
       <c r="P9">
-        <v>0.8722394209131217</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.824935636916619</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.561867439316586</v>
+        <v>1.436325712488582</v>
       </c>
       <c r="C10">
-        <v>0.3799737152934028</v>
+        <v>0.4338278238453199</v>
       </c>
       <c r="D10">
-        <v>0.2519495143974808</v>
+        <v>0.2746368143916698</v>
       </c>
       <c r="E10">
-        <v>0.2341066244943661</v>
+        <v>0.2403406951341225</v>
       </c>
       <c r="F10">
-        <v>1.313056758319092</v>
+        <v>1.179645240090338</v>
       </c>
       <c r="G10">
-        <v>0.8878390886899297</v>
+        <v>0.7918578963816998</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001319418779260673</v>
+        <v>0.001608138926787461</v>
       </c>
       <c r="J10">
-        <v>0.5864767253589775</v>
+        <v>0.5110800312293549</v>
       </c>
       <c r="K10">
-        <v>0.5105573061196793</v>
+        <v>0.423035047175901</v>
       </c>
       <c r="L10">
-        <v>0.2752914946639748</v>
+        <v>0.1826938673819711</v>
       </c>
       <c r="M10">
-        <v>1.879043592093581</v>
+        <v>0.143799765587346</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2713422381304298</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.839375331456694</v>
       </c>
       <c r="P10">
-        <v>0.808643401946842</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7634890038511708</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.669424122846209</v>
+        <v>1.524008983709763</v>
       </c>
       <c r="C11">
-        <v>0.4123488067068877</v>
+        <v>0.4639358219173175</v>
       </c>
       <c r="D11">
-        <v>0.2706219518236566</v>
+        <v>0.298907762272691</v>
       </c>
       <c r="E11">
-        <v>0.2503287545313384</v>
+        <v>0.2579859351954994</v>
       </c>
       <c r="F11">
-        <v>1.361118210615842</v>
+        <v>1.198799914051833</v>
       </c>
       <c r="G11">
-        <v>0.9175449420266375</v>
+        <v>0.8578044083135978</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002454874382106453</v>
+        <v>0.00276722725269174</v>
       </c>
       <c r="J11">
-        <v>0.5958531641423264</v>
+        <v>0.454247525845588</v>
       </c>
       <c r="K11">
-        <v>0.5160949570656328</v>
+        <v>0.4162339820874479</v>
       </c>
       <c r="L11">
-        <v>0.2933410380601771</v>
+        <v>0.1762927439230708</v>
       </c>
       <c r="M11">
-        <v>2.015800846533807</v>
+        <v>0.146764705450785</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2883325360788263</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.955070262399772</v>
       </c>
       <c r="P11">
-        <v>0.779494186191048</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7341428047595633</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.712632618051032</v>
+        <v>1.558628795360164</v>
       </c>
       <c r="C12">
-        <v>0.4235048701044377</v>
+        <v>0.4733443414361318</v>
       </c>
       <c r="D12">
-        <v>0.2773699488174657</v>
+        <v>0.3081785308334588</v>
       </c>
       <c r="E12">
-        <v>0.2564208946316526</v>
+        <v>0.2647212665607768</v>
       </c>
       <c r="F12">
-        <v>1.381846234441142</v>
+        <v>1.206275935768929</v>
       </c>
       <c r="G12">
-        <v>0.9311120625246332</v>
+        <v>0.8899582111464923</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002761995201543854</v>
+        <v>0.003014946490692338</v>
       </c>
       <c r="J12">
-        <v>0.6005826394309537</v>
+        <v>0.4293486416186028</v>
       </c>
       <c r="K12">
-        <v>0.519753254864014</v>
+        <v>0.4141741726681474</v>
       </c>
       <c r="L12">
-        <v>0.3003098423189954</v>
+        <v>0.1740870858671393</v>
       </c>
       <c r="M12">
-        <v>2.068300500477676</v>
+        <v>0.1481386091000054</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2948211564704479</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.997734727061612</v>
       </c>
       <c r="P12">
-        <v>0.7692960061286449</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7234254350436928</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.703818165286549</v>
+        <v>1.551669600159414</v>
       </c>
       <c r="C13">
-        <v>0.4208489632603687</v>
+        <v>0.4710898143520126</v>
       </c>
       <c r="D13">
-        <v>0.2758398828861317</v>
+        <v>0.306084085987635</v>
       </c>
       <c r="E13">
-        <v>0.2550863159774366</v>
+        <v>0.2632435462223839</v>
       </c>
       <c r="F13">
-        <v>1.377817647677531</v>
+        <v>1.205154854313946</v>
       </c>
       <c r="G13">
-        <v>0.9286036272393972</v>
+        <v>0.8831892003138933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002650347079805826</v>
+        <v>0.002907822976065511</v>
       </c>
       <c r="J13">
-        <v>0.5997720058238656</v>
+        <v>0.4350189740166286</v>
       </c>
       <c r="K13">
-        <v>0.5192575090839142</v>
+        <v>0.4148966985358271</v>
       </c>
       <c r="L13">
-        <v>0.2988201112015219</v>
+        <v>0.1746559938075123</v>
       </c>
       <c r="M13">
-        <v>2.057096405215503</v>
+        <v>0.1479560053096307</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2934378046036983</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.988727173629002</v>
       </c>
       <c r="P13">
-        <v>0.7716194214575509</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.725787978483257</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.673187339225166</v>
+        <v>1.527069157987938</v>
       </c>
       <c r="C14">
-        <v>0.4131589416997201</v>
+        <v>0.4646134244184452</v>
       </c>
       <c r="D14">
-        <v>0.2711444597423025</v>
+        <v>0.2996285245663159</v>
       </c>
       <c r="E14">
-        <v>0.2508203334294308</v>
+        <v>0.258528365670152</v>
       </c>
       <c r="F14">
-        <v>1.363008177196392</v>
+        <v>1.199625256494855</v>
       </c>
       <c r="G14">
-        <v>0.9188364899751633</v>
+        <v>0.8605095409689341</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002460365482086502</v>
+        <v>0.002764311280202492</v>
       </c>
       <c r="J14">
-        <v>0.5963304670438276</v>
+        <v>0.4523402699688148</v>
       </c>
       <c r="K14">
-        <v>0.5165199105839093</v>
+        <v>0.4161844156877521</v>
       </c>
       <c r="L14">
-        <v>0.2939190149035369</v>
+        <v>0.1761519444962047</v>
       </c>
       <c r="M14">
-        <v>2.020163356558385</v>
+        <v>0.1469260502086875</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2888723516164049</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.958658955141743</v>
       </c>
       <c r="P14">
-        <v>0.7787092126654862</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7332856388083533</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.653461614507904</v>
+        <v>1.510985898330148</v>
       </c>
       <c r="C15">
-        <v>0.4089523472251813</v>
+        <v>0.4610685597404256</v>
       </c>
       <c r="D15">
-        <v>0.2684215063144393</v>
+        <v>0.2958856973225608</v>
       </c>
       <c r="E15">
-        <v>0.2482538043555991</v>
+        <v>0.2557001267297565</v>
       </c>
       <c r="F15">
-        <v>1.353092560857348</v>
+        <v>1.195192775642965</v>
       </c>
       <c r="G15">
-        <v>0.9120494237424879</v>
+        <v>0.8465451577642824</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002441582083311467</v>
+        <v>0.002789790976984285</v>
       </c>
       <c r="J15">
-        <v>0.5938180881552313</v>
+        <v>0.4621298183683109</v>
       </c>
       <c r="K15">
-        <v>0.5142719602504968</v>
+        <v>0.4163875613225017</v>
       </c>
       <c r="L15">
-        <v>0.2908978707648799</v>
+        <v>0.1768693299175332</v>
       </c>
       <c r="M15">
-        <v>1.997346792841398</v>
+        <v>0.1460621532808588</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2860476693128362</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.939814156017206</v>
       </c>
       <c r="P15">
-        <v>0.7828065812927463</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7377605402128626</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.546699612883828</v>
+        <v>1.42288302343664</v>
       </c>
       <c r="C16">
-        <v>0.3819682481999962</v>
+        <v>0.4361054509729456</v>
       </c>
       <c r="D16">
-        <v>0.2519708751936918</v>
+        <v>0.2743695917979778</v>
       </c>
       <c r="E16">
-        <v>0.2333892845046535</v>
+        <v>0.2395408822807212</v>
       </c>
       <c r="F16">
-        <v>1.30250761541005</v>
+        <v>1.171307051312624</v>
       </c>
       <c r="G16">
-        <v>0.8789039109531984</v>
+        <v>0.7817470494566123</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001947510024662868</v>
+        <v>0.002379163689735009</v>
       </c>
       <c r="J16">
-        <v>0.5823371012867824</v>
+        <v>0.5110713720241336</v>
       </c>
       <c r="K16">
-        <v>0.5052877236032813</v>
+        <v>0.4191909382056664</v>
       </c>
       <c r="L16">
-        <v>0.2738886271470022</v>
+        <v>0.1815870184166926</v>
       </c>
       <c r="M16">
-        <v>1.868313733361305</v>
+        <v>0.141903478791594</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2700067803444313</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.829853371011239</v>
       </c>
       <c r="P16">
-        <v>0.8082805117514802</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7641897903820483</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.481299825244406</v>
+        <v>1.367413156468359</v>
       </c>
       <c r="C17">
-        <v>0.3655989724405515</v>
+        <v>0.4195896359523204</v>
       </c>
       <c r="D17">
-        <v>0.241952346698497</v>
+        <v>0.2619203210095549</v>
       </c>
       <c r="E17">
-        <v>0.2243522658803556</v>
+        <v>0.2298820597584594</v>
       </c>
       <c r="F17">
-        <v>1.2720099566681</v>
+        <v>1.153571593964855</v>
       </c>
       <c r="G17">
-        <v>0.858962282400185</v>
+        <v>0.7503386475891176</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00178012896762958</v>
+        <v>0.002223093706494872</v>
       </c>
       <c r="J17">
-        <v>0.5755094587854046</v>
+        <v>0.5315882656639843</v>
       </c>
       <c r="K17">
-        <v>0.4999460654752852</v>
+        <v>0.4196491297624831</v>
       </c>
       <c r="L17">
-        <v>0.2635625938515318</v>
+        <v>0.1840575165179281</v>
       </c>
       <c r="M17">
-        <v>1.789439064702776</v>
+        <v>0.1389649969540407</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2601468529689441</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.759582627114781</v>
       </c>
       <c r="P17">
-        <v>0.824180567215496</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7803505490978964</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.446166890194064</v>
+        <v>1.337304495268853</v>
       </c>
       <c r="C18">
-        <v>0.3550066832243601</v>
+        <v>0.4083471194239223</v>
       </c>
       <c r="D18">
-        <v>0.235841409262818</v>
+        <v>0.2546396254847707</v>
       </c>
       <c r="E18">
-        <v>0.21908098456624</v>
+        <v>0.2243142571191541</v>
       </c>
       <c r="F18">
-        <v>1.256907190480845</v>
+        <v>1.144368836002911</v>
       </c>
       <c r="G18">
-        <v>0.8497510450364558</v>
+        <v>0.7369905542797568</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00148138668840847</v>
+        <v>0.001866347002259516</v>
       </c>
       <c r="J18">
-        <v>0.5727300069475945</v>
+        <v>0.54051046460674</v>
       </c>
       <c r="K18">
-        <v>0.4984188145316537</v>
+        <v>0.4207443295895814</v>
       </c>
       <c r="L18">
-        <v>0.2577309075410597</v>
+        <v>0.1857884091051787</v>
       </c>
       <c r="M18">
-        <v>1.744713026075715</v>
+        <v>0.1376446275961101</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2545364840788977</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.718702303337523</v>
       </c>
       <c r="P18">
-        <v>0.8341219811698508</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7900057919831589</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.432383770561955</v>
+        <v>1.325256622314981</v>
       </c>
       <c r="C19">
-        <v>0.3523879099952865</v>
+        <v>0.4054882712707126</v>
       </c>
       <c r="D19">
-        <v>0.2340651874795583</v>
+        <v>0.2525101332580988</v>
       </c>
       <c r="E19">
-        <v>0.2173796085906119</v>
+        <v>0.2225216007873385</v>
       </c>
       <c r="F19">
-        <v>1.250088818783993</v>
+        <v>1.139465763272781</v>
       </c>
       <c r="G19">
-        <v>0.8450188769880356</v>
+        <v>0.7314418090940364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001577915676048924</v>
+        <v>0.001980248950913754</v>
       </c>
       <c r="J19">
-        <v>0.5709753198261751</v>
+        <v>0.5420965806948317</v>
       </c>
       <c r="K19">
-        <v>0.4967658846360195</v>
+        <v>0.4200525177852512</v>
       </c>
       <c r="L19">
-        <v>0.2557088629385618</v>
+        <v>0.1859847717226515</v>
       </c>
       <c r="M19">
-        <v>1.729164988403994</v>
+        <v>0.1367939425406455</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2525838892171066</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.704293170944595</v>
       </c>
       <c r="P19">
-        <v>0.8369657308327199</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7929549413593007</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.488451251069961</v>
+        <v>1.37355033579874</v>
       </c>
       <c r="C20">
-        <v>0.3672372835007138</v>
+        <v>0.4212883333408968</v>
       </c>
       <c r="D20">
-        <v>0.2429867682129156</v>
+        <v>0.2631885423186873</v>
       </c>
       <c r="E20">
-        <v>0.2253032837784374</v>
+        <v>0.2308930710102928</v>
       </c>
       <c r="F20">
-        <v>1.275413504190041</v>
+        <v>1.155735983526796</v>
       </c>
       <c r="G20">
-        <v>0.8612371766643463</v>
+        <v>0.7535392405385437</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001773131135849759</v>
+        <v>0.002212144613155331</v>
       </c>
       <c r="J20">
-        <v>0.5763123543120656</v>
+        <v>0.5298730565572214</v>
       </c>
       <c r="K20">
-        <v>0.5006249206948894</v>
+        <v>0.4197471374316066</v>
       </c>
       <c r="L20">
-        <v>0.2646633470992015</v>
+        <v>0.183847310346458</v>
       </c>
       <c r="M20">
-        <v>1.797868175839625</v>
+        <v>0.1393304715005073</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2612024466822476</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.767207309380069</v>
       </c>
       <c r="P20">
-        <v>0.822532116102364</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7786646978654028</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.679419664393663</v>
+        <v>1.529514064582145</v>
       </c>
       <c r="C21">
-        <v>0.4168041149128499</v>
+        <v>0.465720444796375</v>
       </c>
       <c r="D21">
-        <v>0.2729408630603416</v>
+        <v>0.3030063900694699</v>
       </c>
       <c r="E21">
-        <v>0.2521854881904773</v>
+        <v>0.2603007640687167</v>
       </c>
       <c r="F21">
-        <v>1.364831646963296</v>
+        <v>1.193378411369892</v>
       </c>
       <c r="G21">
-        <v>0.9193266098688184</v>
+        <v>0.8773085991987699</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002762615251575617</v>
+        <v>0.003099477431537601</v>
       </c>
       <c r="J21">
-        <v>0.5961422041192748</v>
+        <v>0.4301455517653778</v>
       </c>
       <c r="K21">
-        <v>0.5156623058083767</v>
+        <v>0.4122161273572971</v>
       </c>
       <c r="L21">
-        <v>0.295277810906498</v>
+        <v>0.1744764652243269</v>
       </c>
       <c r="M21">
-        <v>2.030387524969598</v>
+        <v>0.14575007813146</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.289949686067601</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.962144667213266</v>
       </c>
       <c r="P21">
-        <v>0.7758713297628503</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7301364269336674</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.808105381154832</v>
+        <v>1.63348697705004</v>
       </c>
       <c r="C22">
-        <v>0.4480880799894464</v>
+        <v>0.4925548384427998</v>
       </c>
       <c r="D22">
-        <v>0.2922436982429275</v>
+        <v>0.3293903799006017</v>
       </c>
       <c r="E22">
-        <v>0.2698984091816499</v>
+        <v>0.279811152421729</v>
       </c>
       <c r="F22">
-        <v>1.428327301606657</v>
+        <v>1.219612198702947</v>
       </c>
       <c r="G22">
-        <v>0.9616702940449642</v>
+        <v>0.9715720218696617</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003555630931441733</v>
+        <v>0.003621166897552541</v>
       </c>
       <c r="J22">
-        <v>0.6113632106074078</v>
+        <v>0.3696790268734276</v>
       </c>
       <c r="K22">
-        <v>0.5281833239257097</v>
+        <v>0.4084694649472738</v>
       </c>
       <c r="L22">
-        <v>0.3157688235373826</v>
+        <v>0.1689099145999151</v>
       </c>
       <c r="M22">
-        <v>2.184167727063823</v>
+        <v>0.1507446611410259</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3090780926706174</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.088507737171341</v>
       </c>
       <c r="P22">
-        <v>0.7472530336334238</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7000814918903859</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.74272155978079</v>
+        <v>1.58275329728275</v>
       </c>
       <c r="C23">
-        <v>0.4296526477042732</v>
+        <v>0.4780817600819489</v>
       </c>
       <c r="D23">
-        <v>0.2814119504953396</v>
+        <v>0.3139592128868998</v>
       </c>
       <c r="E23">
-        <v>0.2602798959910189</v>
+        <v>0.2690261097749342</v>
       </c>
       <c r="F23">
-        <v>1.397296424961198</v>
+        <v>1.212365950165932</v>
       </c>
       <c r="G23">
-        <v>0.9418009246895025</v>
+        <v>0.9141076153695025</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002806715082380506</v>
+        <v>0.002973376915648807</v>
       </c>
       <c r="J23">
-        <v>0.6046104346640959</v>
+        <v>0.4130167286546822</v>
       </c>
       <c r="K23">
-        <v>0.523446364782707</v>
+        <v>0.41371186887514</v>
       </c>
       <c r="L23">
-        <v>0.3048904893185664</v>
+        <v>0.1729667759397771</v>
       </c>
       <c r="M23">
-        <v>2.102737892325763</v>
+        <v>0.149400052954725</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2990671244904917</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.025269035501708</v>
       </c>
       <c r="P23">
-        <v>0.7633434184102867</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7167655085840956</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.490420295793911</v>
+        <v>1.375639466588751</v>
       </c>
       <c r="C24">
-        <v>0.3638720914101441</v>
+        <v>0.4177319509549022</v>
       </c>
       <c r="D24">
-        <v>0.2417274005360781</v>
+        <v>0.2618106207964814</v>
       </c>
       <c r="E24">
-        <v>0.2246576173692674</v>
+        <v>0.2302224122174792</v>
       </c>
       <c r="F24">
-        <v>1.278642133250244</v>
+        <v>1.159161366183895</v>
       </c>
       <c r="G24">
-        <v>0.8647028182556085</v>
+        <v>0.7561824598763991</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001288573618395183</v>
+        <v>0.001627872525268081</v>
       </c>
       <c r="J24">
-        <v>0.5782181417204697</v>
+        <v>0.5326908773452317</v>
       </c>
       <c r="K24">
-        <v>0.5034659171679223</v>
+        <v>0.4224069631047769</v>
       </c>
       <c r="L24">
-        <v>0.2643136084153497</v>
+        <v>0.1849243126235152</v>
       </c>
       <c r="M24">
-        <v>1.795213682821213</v>
+        <v>0.1402248254294811</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2608680351356298</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.764872196590716</v>
       </c>
       <c r="P24">
-        <v>0.824753318582081</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7802591232427618</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21956306724573</v>
+        <v>1.133937660877478</v>
       </c>
       <c r="C25">
-        <v>0.2952101716331015</v>
+        <v>0.3370399740279595</v>
       </c>
       <c r="D25">
-        <v>0.1998522028535064</v>
+        <v>0.2151553608267989</v>
       </c>
       <c r="E25">
-        <v>0.1872969725852514</v>
+        <v>0.1916572761097726</v>
       </c>
       <c r="F25">
-        <v>1.157949362612442</v>
+        <v>1.061944300936148</v>
       </c>
       <c r="G25">
-        <v>0.7869191448093886</v>
+        <v>0.6904320791867775</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001339613710664267</v>
+        <v>0.001375585813721436</v>
       </c>
       <c r="J25">
-        <v>0.5527387454526718</v>
+        <v>0.5227435081044405</v>
       </c>
       <c r="K25">
-        <v>0.4843186348780435</v>
+        <v>0.4153239139131699</v>
       </c>
       <c r="L25">
-        <v>0.2219717121451765</v>
+        <v>0.1919151458215964</v>
       </c>
       <c r="M25">
-        <v>1.46710717794258</v>
+        <v>0.1257916014803406</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.219451612823562</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.447645288552053</v>
       </c>
       <c r="P25">
-        <v>0.8948400235165916</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8472562104828185</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
